--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sele</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>765.807313381763</v>
+        <v>6.159891999999999</v>
       </c>
       <c r="H2">
-        <v>765.807313381763</v>
+        <v>18.479676</v>
       </c>
       <c r="I2">
-        <v>0.9026430606268641</v>
+        <v>0.007079533182016282</v>
       </c>
       <c r="J2">
-        <v>0.9026430606268641</v>
+        <v>0.007079533182016282</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N2">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q2">
-        <v>1858.426966495434</v>
+        <v>39.98107264751867</v>
       </c>
       <c r="R2">
-        <v>1858.426966495434</v>
+        <v>359.829653827668</v>
       </c>
       <c r="S2">
-        <v>0.5665655076676727</v>
+        <v>0.005678965575199935</v>
       </c>
       <c r="T2">
-        <v>0.5665655076676727</v>
+        <v>0.005678965575199934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>765.807313381763</v>
+        <v>6.159891999999999</v>
       </c>
       <c r="H3">
-        <v>765.807313381763</v>
+        <v>18.479676</v>
       </c>
       <c r="I3">
-        <v>0.9026430606268641</v>
+        <v>0.007079533182016282</v>
       </c>
       <c r="J3">
-        <v>0.9026430606268641</v>
+        <v>0.007079533182016282</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q3">
-        <v>1102.38900674397</v>
+        <v>9.860280801916</v>
       </c>
       <c r="R3">
-        <v>1102.38900674397</v>
+        <v>88.74252721724399</v>
       </c>
       <c r="S3">
-        <v>0.3360775529591915</v>
+        <v>0.001400567606816348</v>
       </c>
       <c r="T3">
-        <v>0.3360775529591915</v>
+        <v>0.001400567606816348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.332579589489433</v>
+        <v>771.4717003333334</v>
       </c>
       <c r="H4">
-        <v>0.332579589489433</v>
+        <v>2314.415101</v>
       </c>
       <c r="I4">
-        <v>0.0003920054735872111</v>
+        <v>0.8866485810946614</v>
       </c>
       <c r="J4">
-        <v>0.0003920054735872111</v>
+        <v>0.8866485810946614</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N4">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q4">
-        <v>0.8070892857940453</v>
+        <v>5007.273844497883</v>
       </c>
       <c r="R4">
-        <v>0.8070892857940453</v>
+        <v>45065.46460048095</v>
       </c>
       <c r="S4">
-        <v>0.0002460516120261356</v>
+        <v>0.7112399419395601</v>
       </c>
       <c r="T4">
-        <v>0.0002460516120261356</v>
+        <v>0.7112399419395601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.332579589489433</v>
+        <v>771.4717003333334</v>
       </c>
       <c r="H5">
-        <v>0.332579589489433</v>
+        <v>2314.415101</v>
       </c>
       <c r="I5">
-        <v>0.0003920054735872111</v>
+        <v>0.8866485810946614</v>
       </c>
       <c r="J5">
-        <v>0.0003920054735872111</v>
+        <v>0.8866485810946614</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N5">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q5">
-        <v>0.4787523922976737</v>
+        <v>1234.912494572674</v>
       </c>
       <c r="R5">
-        <v>0.4787523922976737</v>
+        <v>11114.21245115407</v>
       </c>
       <c r="S5">
-        <v>0.0001459538615610756</v>
+        <v>0.1754086391551014</v>
       </c>
       <c r="T5">
-        <v>0.0001459538615610756</v>
+        <v>0.1754086391551014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.2655806718154</v>
+        <v>0.4146736666666667</v>
       </c>
       <c r="H6">
-        <v>82.2655806718154</v>
+        <v>1.244021</v>
       </c>
       <c r="I6">
-        <v>0.09696493389954872</v>
+        <v>0.0004765823788590816</v>
       </c>
       <c r="J6">
-        <v>0.09696493389954872</v>
+        <v>0.0004765823788590817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N6">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q6">
-        <v>199.6384349736456</v>
+        <v>2.691459199611445</v>
       </c>
       <c r="R6">
-        <v>199.6384349736456</v>
+        <v>24.223132796503</v>
       </c>
       <c r="S6">
-        <v>0.06086236010345852</v>
+        <v>0.0003822985010032535</v>
       </c>
       <c r="T6">
-        <v>0.06086236010345852</v>
+        <v>0.0003822985010032535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4146736666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.244021</v>
+      </c>
+      <c r="I7">
+        <v>0.0004765823788590816</v>
+      </c>
+      <c r="J7">
+        <v>0.0004765823788590817</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.600723</v>
+      </c>
+      <c r="N7">
+        <v>4.802169</v>
+      </c>
+      <c r="O7">
+        <v>0.1978333275383364</v>
+      </c>
+      <c r="P7">
+        <v>0.1978333275383364</v>
+      </c>
+      <c r="Q7">
+        <v>0.6637776757276667</v>
+      </c>
+      <c r="R7">
+        <v>5.973999081549001</v>
+      </c>
+      <c r="S7">
+        <v>9.428387785582822E-05</v>
+      </c>
+      <c r="T7">
+        <v>9.428387785582822E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>82.2655806718154</v>
-      </c>
-      <c r="H7">
-        <v>82.2655806718154</v>
-      </c>
-      <c r="I7">
-        <v>0.09696493389954872</v>
-      </c>
-      <c r="J7">
-        <v>0.09696493389954872</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.43951224737706</v>
-      </c>
-      <c r="N7">
-        <v>1.43951224737706</v>
-      </c>
-      <c r="O7">
-        <v>0.3723260806168428</v>
-      </c>
-      <c r="P7">
-        <v>0.3723260806168428</v>
-      </c>
-      <c r="Q7">
-        <v>118.4223109146638</v>
-      </c>
-      <c r="R7">
-        <v>118.4223109146638</v>
-      </c>
-      <c r="S7">
-        <v>0.03610257379609021</v>
-      </c>
-      <c r="T7">
-        <v>0.03610257379609021</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>92.05234666666666</v>
+      </c>
+      <c r="H8">
+        <v>276.15704</v>
+      </c>
+      <c r="I8">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="J8">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.490547666666667</v>
+      </c>
+      <c r="N8">
+        <v>19.471643</v>
+      </c>
+      <c r="O8">
+        <v>0.8021666724616637</v>
+      </c>
+      <c r="P8">
+        <v>0.8021666724616636</v>
+      </c>
+      <c r="Q8">
+        <v>597.4701438685245</v>
+      </c>
+      <c r="R8">
+        <v>5377.23129481672</v>
+      </c>
+      <c r="S8">
+        <v>0.08486546644590044</v>
+      </c>
+      <c r="T8">
+        <v>0.08486546644590043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>92.05234666666666</v>
+      </c>
+      <c r="H9">
+        <v>276.15704</v>
+      </c>
+      <c r="I9">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="J9">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.600723</v>
+      </c>
+      <c r="N9">
+        <v>4.802169</v>
+      </c>
+      <c r="O9">
+        <v>0.1978333275383364</v>
+      </c>
+      <c r="P9">
+        <v>0.1978333275383364</v>
+      </c>
+      <c r="Q9">
+        <v>147.3503085133067</v>
+      </c>
+      <c r="R9">
+        <v>1326.15277661976</v>
+      </c>
+      <c r="S9">
+        <v>0.02092983689856286</v>
+      </c>
+      <c r="T9">
+        <v>0.02092983689856286</v>
       </c>
     </row>
   </sheetData>
